--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/lab6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adebu\PycharmProjects\cs151-lab6-coope_oreoluwa_lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D46B02-26E9-E948-BF2B-078F7C3B7399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DCD5C-D9D2-415D-AF5B-D99B67AF934F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Test number</t>
   </si>
@@ -51,9 +51,6 @@
     <t xml:space="preserve"> view balance</t>
   </si>
   <si>
-    <t>higher withdrawl</t>
-  </si>
-  <si>
     <t>in: amount</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>initial balance</t>
   </si>
   <si>
-    <t>in: coice</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>out: menu</t>
   </si>
   <si>
-    <t>negative balance</t>
-  </si>
-  <si>
     <t>out: info</t>
   </si>
   <si>
@@ -106,6 +97,45 @@
   </si>
   <si>
     <t>withdraw negative</t>
+  </si>
+  <si>
+    <t>in: choice</t>
+  </si>
+  <si>
+    <t>higher withdrawal</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Invalid choice</t>
+  </si>
+  <si>
+    <t>validate non-numeric deposit</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Invalid deposit</t>
+  </si>
+  <si>
+    <t>input invalid menu choice</t>
+  </si>
+  <si>
+    <t>validate non-numeric withdrawal</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>negative balance + warning</t>
+  </si>
+  <si>
+    <t>Please enter valid choice. do you want to use atm again</t>
+  </si>
+  <si>
+    <t>Error: Please enter a valid number. do you want to use atm again</t>
   </si>
 </sst>
 </file>
@@ -141,8 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127005B9-9F5E-0446-B242-2658EACB013E}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.09765625" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,22 +514,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,23 +537,23 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>1100</f>
         <v>1100</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,22 +561,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-      <c r="E3">
-        <v>1800</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1">
+        <v>950</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -548,118 +584,187 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>1200</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-200</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
         <v>-100</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>-100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="H16">
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
         <v>1000</v>
       </c>
     </row>
